--- a/reports/For The Day (Actual)_PayrollHistory.xlsx
+++ b/reports/For The Day (Actual)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>department</t>
   </si>
@@ -22,118 +22,13 @@
     <t>total</t>
   </si>
   <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
     <t>D6212</t>
-  </si>
-  <si>
-    <t>D6215</t>
   </si>
   <si>
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D6781</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
     <t>D8030</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D8700</t>
-  </si>
-  <si>
-    <t>D8800</t>
   </si>
 </sst>
 </file>
@@ -496,14 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -519,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>298.74</v>
+        <v>178.75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -527,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1395.21</v>
+        <v>178.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -535,287 +430,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1020.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1663.27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1019.91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1224.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>898.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2527.11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2878.90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1546.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>155.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1210.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>472.57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>587.20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>594.89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1515.10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>239.82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>201.76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>595.87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1614.78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
-        <v>528.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1782.39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2">
-        <v>369.46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2">
-        <v>390.15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2">
-        <v>183.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2">
-        <v>927.74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2">
-        <v>885.39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2">
-        <v>118.44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2">
-        <v>423.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2">
-        <v>483.76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2">
-        <v>591.01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1155.20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2">
-        <v>507.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2">
-        <v>399.62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2">
-        <v>334.51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2">
-        <v>175.96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>80.24</v>
+        <v>153.00</v>
       </c>
     </row>
   </sheetData>
